--- a/data/published/2016_SealeCarlisle_Mickes/testInput.xlsx
+++ b/data/published/2016_SealeCarlisle_Mickes/testInput.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lauramickes/Google Drive/Current/18Modelling Programming/pyWitness/data/published/2016_SealeCarlisle_Mickes/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62B98F6-AF54-DE4A-ABF2-16C21021D5DD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E86B4B8C-A743-BC49-ABDD-EA819382D32F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10640" yWindow="8780" windowWidth="33100" windowHeight="19140" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
+    <workbookView xWindow="9920" yWindow="800" windowWidth="33100" windowHeight="19140" xr2:uid="{9ED41D21-AD87-EA4A-9860-FFB390C24F36}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -183,9 +183,6 @@
     <t>pAUC</t>
   </si>
   <si>
-    <t>published_SealeCarlisle_Mickes2016()</t>
-  </si>
-  <si>
     <t>condition US</t>
   </si>
   <si>
@@ -196,6 +193,9 @@
   </si>
   <si>
     <t>{"exclude":1}</t>
+  </si>
+  <si>
+    <t>published_SealeCarlisle_Mickes_2016()</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D299942-CAD7-8B42-80C6-6BA1FC3BDCD5}">
   <dimension ref="A1:M43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="117" zoomScaleNormal="117" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -587,40 +587,40 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.2">
@@ -710,40 +710,40 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="K4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="M4" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
@@ -751,40 +751,40 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="I5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="J5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="K5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="L5" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="M5" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -792,40 +792,40 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="J6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="M6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.2">
@@ -874,40 +874,40 @@
         <v>29</v>
       </c>
       <c r="B8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="C8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="D8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="F8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="G8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="H8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="I8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="J8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="K8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="L8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
       <c r="M8" s="4">
-        <v>20</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
